--- a/HW1/IMSE_802_BlakeConrad_Homework1.xlsx
+++ b/HW1/IMSE_802_BlakeConrad_Homework1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/spdm/HW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="580" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="9580" yWindow="580" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="P4" sheetId="4" r:id="rId4"/>
     <sheet name="P5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'P4'!$D$26:$F$26</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
@@ -52,7 +49,7 @@
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -65,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Month</t>
   </si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Safety Stock (Days)</t>
   </si>
 </sst>
 </file>
@@ -573,15 +573,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,9 +583,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -607,21 +595,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,24 +637,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,12 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -730,6 +682,54 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1510,11 +1510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1473230880"/>
-        <c:axId val="-1472606208"/>
+        <c:axId val="-1186074832"/>
+        <c:axId val="-1186073200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1473230880"/>
+        <c:axId val="-1186074832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1472606208"/>
+        <c:crossAx val="-1186073200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1565,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1472606208"/>
+        <c:axId val="-1186073200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1473230880"/>
+        <c:crossAx val="-1186074832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2269,7 +2269,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -2315,7 +2318,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2425,7 +2428,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -2455,7 +2461,7 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2583,9 +2589,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
@@ -2616,7 +2622,7 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2000">
+            <a:rPr lang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2786,31 +2792,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> our Probability of out of stock = 10%. Now we seek to calculate the service level and the safety stock. These service level is the point that represents the probability we wish to service </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(z-value = 1.28).B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>y converting our 90% point in the normal distribution (z-value = 1.28) into actual units from our data (std = 2974), this is by multiplying them, we obtain the actual point in the normal distribution that represents how many units of demands we should keep on hand (not in normal distribution units, but in demand units). Our  results can be verified with the historical data. If we consider 10 historical data points, we would hope to see a Total Units Needed ot be greater than 9/10 of them. In our case we see the expected number of total units needed higher than 11 of our 13 data points, which is about 90% validating the proposed number.</a:t>
+            <a:t> our Probability of out of stock = 10%. Now we seek to calculate the service level and the safety stock. These service level is the point that represents the probability we wish to service (z-value = 1.28).By converting our 90% point in the normal distribution (z-value = 1.28) into actual units from our data (std = 2974), this is by multiplying them, we obtain the actual point in the normal distribution that represents how many units of demands we should keep on hand (not in normal distribution units, but in demand units). Our  results can be verified with the historical data. If we consider 10 historical data points, we would hope to see a Total Units Needed ot be greater than 9/10 of them. In our case we see the expected number of total units needed higher than 11 of our 13 data points, which is about 90% validating the proposed number.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2988,7 +2970,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -3018,7 +3003,7 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3105,7 +3090,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -3135,7 +3123,7 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3152,118 +3140,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Moving Average and Weighted "/>
-      <sheetName val="Exponential Smoothing"/>
-      <sheetName val="Regression Analysis"/>
-      <sheetName val="EOQ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>Actual</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>α = .2</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>α = .8</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>January</v>
-          </cell>
-          <cell r="D4">
-            <v>1325</v>
-          </cell>
-          <cell r="E4">
-            <v>1370</v>
-          </cell>
-          <cell r="F4">
-            <v>1370</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>February</v>
-          </cell>
-          <cell r="D5">
-            <v>1353</v>
-          </cell>
-          <cell r="E5">
-            <v>1361</v>
-          </cell>
-          <cell r="F5">
-            <v>1334</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>March</v>
-          </cell>
-          <cell r="D6">
-            <v>1305</v>
-          </cell>
-          <cell r="E6">
-            <v>1359.4</v>
-          </cell>
-          <cell r="F6">
-            <v>1349.2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>April</v>
-          </cell>
-          <cell r="D7">
-            <v>1275</v>
-          </cell>
-          <cell r="E7">
-            <v>1348.52</v>
-          </cell>
-          <cell r="F7">
-            <v>1313.84</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="D8">
-            <v>1210</v>
-          </cell>
-          <cell r="E8">
-            <v>1333.816</v>
-          </cell>
-          <cell r="F8">
-            <v>1282.768</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>June</v>
-          </cell>
-          <cell r="E9">
-            <v>1309.0527999999999</v>
-          </cell>
-          <cell r="F9">
-            <v>1224.5536</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3531,7 +3407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
@@ -3557,766 +3433,766 @@
   <sheetData>
     <row r="13" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="40" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="28">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="20">
         <v>0.2</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="21">
         <v>0.4</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="21">
         <v>0.6</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="22">
         <v>0.8</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="20">
         <v>0.2</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="21">
         <v>0.4</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="21">
         <v>0.6</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="22">
         <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="23">
         <v>14520</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="23">
         <v>14000</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="23">
         <v>14000</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="23">
         <v>14000</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="23">
         <v>14000</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="25">
         <f>ABS($D17-E17)</f>
         <v>520</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="25">
         <f t="shared" ref="J17:L17" si="0">ABS($D17-F17)</f>
         <v>520</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="25">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="25">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="24">
         <v>17250</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="24">
         <f>E17+E$15*($D17-E17)</f>
         <v>14104</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="24">
         <f t="shared" ref="F18:H29" si="1">F17+F$15*($D17-F17)</f>
         <v>14208</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="24">
         <f t="shared" si="1"/>
         <v>14312</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="24">
         <f t="shared" si="1"/>
         <v>14416</v>
       </c>
-      <c r="I18" s="34">
-        <f>ABS(D18-E18)</f>
+      <c r="I18" s="26">
+        <f t="shared" ref="I18:I28" si="2">ABS(D18-E18)</f>
         <v>3146</v>
       </c>
-      <c r="J18" s="34">
-        <f t="shared" ref="J18:L28" si="2">ABS(E18-F18)</f>
+      <c r="J18" s="26">
+        <f t="shared" ref="J18:L28" si="3">ABS(E18-F18)</f>
         <v>104</v>
       </c>
-      <c r="K18" s="34">
-        <f t="shared" si="2"/>
+      <c r="K18" s="26">
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="L18" s="34">
-        <f t="shared" si="2"/>
+      <c r="L18" s="26">
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="24">
         <v>16800</v>
       </c>
-      <c r="E19" s="32">
-        <f t="shared" ref="E19:E29" si="3">E18+E$15*($D18-E18)</f>
+      <c r="E19" s="24">
+        <f t="shared" ref="E19:E29" si="4">E18+E$15*($D18-E18)</f>
         <v>14733.2</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="24">
         <f t="shared" si="1"/>
         <v>15424.8</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="24">
         <f t="shared" si="1"/>
         <v>16074.8</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="24">
         <f t="shared" si="1"/>
         <v>16683.2</v>
       </c>
-      <c r="I19" s="33">
-        <f>ABS(D19-E19)</f>
+      <c r="I19" s="25">
+        <f t="shared" si="2"/>
         <v>2066.7999999999993</v>
       </c>
-      <c r="J19" s="33">
-        <f t="shared" si="2"/>
+      <c r="J19" s="25">
+        <f t="shared" si="3"/>
         <v>691.59999999999854</v>
       </c>
-      <c r="K19" s="33">
-        <f t="shared" si="2"/>
+      <c r="K19" s="25">
+        <f t="shared" si="3"/>
         <v>650</v>
       </c>
-      <c r="L19" s="33">
-        <f t="shared" si="2"/>
+      <c r="L19" s="25">
+        <f t="shared" si="3"/>
         <v>608.40000000000146</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="23">
         <v>19500</v>
       </c>
-      <c r="E20" s="32">
-        <f t="shared" si="3"/>
+      <c r="E20" s="24">
+        <f t="shared" si="4"/>
         <v>15146.560000000001</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="24">
         <f t="shared" si="1"/>
         <v>15974.88</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="24">
         <f t="shared" si="1"/>
         <v>16509.919999999998</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="24">
         <f t="shared" si="1"/>
         <v>16776.64</v>
       </c>
-      <c r="I20" s="34">
-        <f>ABS(D20-E20)</f>
+      <c r="I20" s="26">
+        <f t="shared" si="2"/>
         <v>4353.4399999999987</v>
       </c>
-      <c r="J20" s="34">
-        <f t="shared" si="2"/>
+      <c r="J20" s="26">
+        <f t="shared" si="3"/>
         <v>828.31999999999789</v>
       </c>
-      <c r="K20" s="34">
-        <f t="shared" si="2"/>
+      <c r="K20" s="26">
+        <f t="shared" si="3"/>
         <v>535.03999999999905</v>
       </c>
-      <c r="L20" s="34">
-        <f t="shared" si="2"/>
+      <c r="L20" s="26">
+        <f t="shared" si="3"/>
         <v>266.72000000000116</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="24">
         <v>21000</v>
       </c>
-      <c r="E21" s="32">
-        <f t="shared" si="3"/>
+      <c r="E21" s="24">
+        <f t="shared" si="4"/>
         <v>16017.248000000001</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="24">
         <f t="shared" si="1"/>
         <v>17384.928</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="24">
         <f t="shared" si="1"/>
         <v>18303.968000000001</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="24">
         <f t="shared" si="1"/>
         <v>18955.328000000001</v>
       </c>
-      <c r="I21" s="33">
-        <f>ABS(D21-E21)</f>
+      <c r="I21" s="25">
+        <f t="shared" si="2"/>
         <v>4982.7519999999986</v>
       </c>
-      <c r="J21" s="33">
-        <f t="shared" si="2"/>
+      <c r="J21" s="25">
+        <f t="shared" si="3"/>
         <v>1367.6799999999985</v>
       </c>
-      <c r="K21" s="33">
-        <f t="shared" si="2"/>
+      <c r="K21" s="25">
+        <f t="shared" si="3"/>
         <v>919.04000000000087</v>
       </c>
-      <c r="L21" s="33">
-        <f t="shared" si="2"/>
+      <c r="L21" s="25">
+        <f t="shared" si="3"/>
         <v>651.36000000000058</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="24">
         <v>22500</v>
       </c>
-      <c r="E22" s="32">
-        <f t="shared" si="3"/>
+      <c r="E22" s="24">
+        <f t="shared" si="4"/>
         <v>17013.7984</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="24">
         <f t="shared" si="1"/>
         <v>18830.9568</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="24">
         <f t="shared" si="1"/>
         <v>19921.587200000002</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="24">
         <f t="shared" si="1"/>
         <v>20591.065600000002</v>
       </c>
-      <c r="I22" s="34">
-        <f>ABS(D22-E22)</f>
+      <c r="I22" s="26">
+        <f t="shared" si="2"/>
         <v>5486.2016000000003</v>
       </c>
-      <c r="J22" s="34">
-        <f t="shared" si="2"/>
+      <c r="J22" s="26">
+        <f t="shared" si="3"/>
         <v>1817.1584000000003</v>
       </c>
-      <c r="K22" s="34">
-        <f t="shared" si="2"/>
+      <c r="K22" s="26">
+        <f t="shared" si="3"/>
         <v>1090.6304000000018</v>
       </c>
-      <c r="L22" s="34">
-        <f t="shared" si="2"/>
+      <c r="L22" s="26">
+        <f t="shared" si="3"/>
         <v>669.47839999999997</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="23">
         <v>19500</v>
       </c>
-      <c r="E23" s="32">
-        <f t="shared" si="3"/>
+      <c r="E23" s="24">
+        <f t="shared" si="4"/>
         <v>18111.03872</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="24">
         <f t="shared" si="1"/>
         <v>20298.574079999999</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="24">
         <f t="shared" si="1"/>
         <v>21468.634880000001</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="24">
         <f t="shared" si="1"/>
         <v>22118.21312</v>
       </c>
-      <c r="I23" s="33">
-        <f>ABS(D23-E23)</f>
+      <c r="I23" s="25">
+        <f t="shared" si="2"/>
         <v>1388.9612799999995</v>
       </c>
-      <c r="J23" s="33">
-        <f t="shared" si="2"/>
+      <c r="J23" s="25">
+        <f t="shared" si="3"/>
         <v>2187.535359999998</v>
       </c>
-      <c r="K23" s="33">
-        <f t="shared" si="2"/>
+      <c r="K23" s="25">
+        <f t="shared" si="3"/>
         <v>1170.0608000000029</v>
       </c>
-      <c r="L23" s="33">
-        <f t="shared" si="2"/>
+      <c r="L23" s="25">
+        <f t="shared" si="3"/>
         <v>649.57823999999891</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="24">
         <v>16800</v>
       </c>
-      <c r="E24" s="32">
-        <f t="shared" si="3"/>
+      <c r="E24" s="24">
+        <f t="shared" si="4"/>
         <v>18388.830976000001</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="24">
         <f t="shared" si="1"/>
         <v>19979.144447999999</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="24">
         <f t="shared" si="1"/>
         <v>20287.453952</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="24">
         <f t="shared" si="1"/>
         <v>20023.642624</v>
       </c>
-      <c r="I24" s="34">
-        <f>ABS(D24-E24)</f>
+      <c r="I24" s="26">
+        <f t="shared" si="2"/>
         <v>1588.8309760000011</v>
       </c>
-      <c r="J24" s="34">
-        <f t="shared" si="2"/>
+      <c r="J24" s="26">
+        <f t="shared" si="3"/>
         <v>1590.313471999998</v>
       </c>
-      <c r="K24" s="34">
-        <f t="shared" si="2"/>
+      <c r="K24" s="26">
+        <f t="shared" si="3"/>
         <v>308.30950400000074</v>
       </c>
-      <c r="L24" s="34">
-        <f t="shared" si="2"/>
+      <c r="L24" s="26">
+        <f t="shared" si="3"/>
         <v>263.81132799999978</v>
       </c>
     </row>
     <row r="25" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="24">
         <v>15500</v>
       </c>
-      <c r="E25" s="32">
-        <f t="shared" si="3"/>
+      <c r="E25" s="24">
+        <f t="shared" si="4"/>
         <v>18071.064780799999</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="24">
         <f t="shared" si="1"/>
         <v>18707.4866688</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="24">
         <f t="shared" si="1"/>
         <v>18194.981580799998</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="24">
         <f t="shared" si="1"/>
         <v>17444.728524800001</v>
       </c>
-      <c r="I25" s="33">
-        <f>ABS(D25-E25)</f>
+      <c r="I25" s="25">
+        <f t="shared" si="2"/>
         <v>2571.0647807999994</v>
       </c>
-      <c r="J25" s="33">
-        <f t="shared" si="2"/>
+      <c r="J25" s="25">
+        <f t="shared" si="3"/>
         <v>636.42188800000076</v>
       </c>
-      <c r="K25" s="33">
-        <f t="shared" si="2"/>
+      <c r="K25" s="25">
+        <f t="shared" si="3"/>
         <v>512.50508800000171</v>
       </c>
-      <c r="L25" s="33">
-        <f t="shared" si="2"/>
+      <c r="L25" s="25">
+        <f t="shared" si="3"/>
         <v>750.25305599999774</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="23">
         <v>14244</v>
       </c>
-      <c r="E26" s="32">
-        <f t="shared" si="3"/>
+      <c r="E26" s="24">
+        <f t="shared" si="4"/>
         <v>17556.851824639998</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="24">
         <f t="shared" si="1"/>
         <v>17424.492001279999</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="24">
         <f t="shared" si="1"/>
         <v>16577.992632319998</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="24">
         <f t="shared" si="1"/>
         <v>15888.945704960001</v>
       </c>
-      <c r="I26" s="34">
-        <f>ABS(D26-E26)</f>
+      <c r="I26" s="26">
+        <f t="shared" si="2"/>
         <v>3312.8518246399981</v>
       </c>
-      <c r="J26" s="34">
-        <f t="shared" si="2"/>
+      <c r="J26" s="26">
+        <f t="shared" si="3"/>
         <v>132.3598233599987</v>
       </c>
-      <c r="K26" s="34">
-        <f t="shared" si="2"/>
+      <c r="K26" s="26">
+        <f t="shared" si="3"/>
         <v>846.49936896000145</v>
       </c>
-      <c r="L26" s="34">
-        <f t="shared" si="2"/>
+      <c r="L26" s="26">
+        <f t="shared" si="3"/>
         <v>689.04692735999743</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="24">
         <v>13533</v>
       </c>
-      <c r="E27" s="32">
-        <f t="shared" si="3"/>
+      <c r="E27" s="24">
+        <f t="shared" si="4"/>
         <v>16894.281459711998</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="24">
         <f t="shared" si="1"/>
         <v>16152.295200768</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="24">
         <f t="shared" si="1"/>
         <v>15177.597052927998</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="24">
         <f t="shared" si="1"/>
         <v>14572.989140992</v>
       </c>
-      <c r="I27" s="33">
-        <f>ABS(D27-E27)</f>
+      <c r="I27" s="25">
+        <f t="shared" si="2"/>
         <v>3361.2814597119977</v>
       </c>
-      <c r="J27" s="33">
-        <f t="shared" si="2"/>
+      <c r="J27" s="25">
+        <f t="shared" si="3"/>
         <v>741.98625894399811</v>
       </c>
-      <c r="K27" s="33">
-        <f t="shared" si="2"/>
+      <c r="K27" s="25">
+        <f t="shared" si="3"/>
         <v>974.69814784000118</v>
       </c>
-      <c r="L27" s="33">
-        <f t="shared" si="2"/>
+      <c r="L27" s="25">
+        <f t="shared" si="3"/>
         <v>604.60791193599835</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="24">
         <v>13880</v>
       </c>
-      <c r="E28" s="32">
-        <f t="shared" si="3"/>
+      <c r="E28" s="24">
+        <f t="shared" si="4"/>
         <v>16222.025167769598</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="24">
         <f t="shared" si="1"/>
         <v>15104.577120460799</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="24">
         <f t="shared" si="1"/>
         <v>14190.838821171199</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="24">
         <f t="shared" si="1"/>
         <v>13740.9978281984</v>
       </c>
-      <c r="I28" s="34">
-        <f>ABS(D28-E28)</f>
+      <c r="I28" s="26">
+        <f t="shared" si="2"/>
         <v>2342.0251677695978</v>
       </c>
-      <c r="J28" s="34">
-        <f t="shared" si="2"/>
+      <c r="J28" s="26">
+        <f t="shared" si="3"/>
         <v>1117.4480473087988</v>
       </c>
-      <c r="K28" s="34">
-        <f t="shared" si="2"/>
+      <c r="K28" s="26">
+        <f t="shared" si="3"/>
         <v>913.73829928960004</v>
       </c>
-      <c r="L28" s="34">
-        <f t="shared" si="2"/>
+      <c r="L28" s="26">
+        <f t="shared" si="3"/>
         <v>449.84099297279863</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32">
-        <f t="shared" si="3"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24">
+        <f t="shared" si="4"/>
         <v>15753.620134215678</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="24">
         <f t="shared" si="1"/>
         <v>14614.746272276479</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="24">
         <f t="shared" si="1"/>
         <v>14004.33552846848</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="24">
         <f t="shared" si="1"/>
         <v>13852.199565639679</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="12">
         <f>SUMPRODUCT(I17:I28)</f>
         <v>35120.209088921598</v>
       </c>
-      <c r="J29" s="15">
-        <f t="shared" ref="J29:L29" si="4">SUMPRODUCT(J17:J28)</f>
+      <c r="J29" s="12">
+        <f t="shared" ref="J29:L29" si="5">SUMPRODUCT(J17:J28)</f>
         <v>11734.823249612788</v>
       </c>
-      <c r="K29" s="15">
-        <f t="shared" si="4"/>
+      <c r="K29" s="12">
+        <f t="shared" si="5"/>
         <v>8544.5216080896098</v>
       </c>
-      <c r="L29" s="15">
-        <f t="shared" si="4"/>
+      <c r="L29" s="12">
+        <f t="shared" si="5"/>
         <v>6227.096856268794</v>
       </c>
     </row>
     <row r="33" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="C36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="C37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="C38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
     </row>
     <row r="39" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="C39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
+      <c r="C40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="C41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="3:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4344,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C32:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:E56"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4358,243 +4234,243 @@
   <sheetData>
     <row r="32" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="54"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="16">
         <v>14520</v>
       </c>
-      <c r="E34" s="54"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="17">
         <v>17250</v>
       </c>
-      <c r="E35" s="54"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="17">
         <v>16800</v>
       </c>
-      <c r="E36" s="54"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="16">
         <v>19500</v>
       </c>
-      <c r="E37" s="54"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="17">
         <v>21000</v>
       </c>
-      <c r="E38" s="54"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="17">
         <v>22500</v>
       </c>
-      <c r="E39" s="54"/>
+      <c r="E39" s="38"/>
     </row>
     <row r="40" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="16">
         <v>19500</v>
       </c>
-      <c r="E40" s="54"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="17">
         <v>16800</v>
       </c>
-      <c r="E41" s="54"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="17">
         <v>15500</v>
       </c>
-      <c r="E42" s="54"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="16">
         <v>14244</v>
       </c>
-      <c r="E43" s="54"/>
+      <c r="E43" s="38"/>
     </row>
     <row r="44" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="17">
         <v>13533</v>
       </c>
-      <c r="E44" s="54"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="17">
         <v>13880</v>
       </c>
-      <c r="E45" s="54"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="3:5" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="17">
         <v>13852.199565639679</v>
       </c>
-      <c r="E46" s="54"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="3:5" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="54"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="18">
         <f>AVERAGE(D34:D46)</f>
         <v>16836.861505049208</v>
       </c>
-      <c r="E48" s="54"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="18">
         <f>STDEV(D34:D46)</f>
         <v>2974.973226540681</v>
       </c>
-      <c r="E49" s="54"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="15">
         <v>1.28</v>
       </c>
-      <c r="E50" s="54"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="58">
         <f>D49*D50</f>
         <v>3807.9657299720716</v>
       </c>
-      <c r="E51" s="54"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="3:6" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="23"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="54"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
     </row>
     <row r="54" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="25">
+      <c r="C55" s="58">
         <f>D48</f>
         <v>16836.861505049208</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="58">
         <f>D51</f>
         <v>3807.9657299720716</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="54">
         <f>SUM(C55:D55)</f>
         <v>20644.827235021279</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="52"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="55"/>
     </row>
     <row r="57" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="50" t="s">
+      <c r="E58" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="19">
+      <c r="C59" s="15">
         <f>D48/30</f>
         <v>561.22871683497362</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="15">
         <v>10</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="15">
         <f>D55/30</f>
         <v>126.93219099906905</v>
       </c>
-      <c r="F59" s="53">
+      <c r="F59" s="37">
         <f>C59*D59+E59</f>
         <v>5739.2193593488055</v>
       </c>
@@ -4630,15 +4506,15 @@
   <sheetData>
     <row r="24" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="61" t="s">
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="H25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="44">
         <f>SUMPRODUCT(D26:F26,D27:F27)</f>
         <v>22892.307692307695</v>
       </c>
@@ -4647,13 +4523,13 @@
       <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="40">
         <v>92.307692307692307</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="40">
         <v>0</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="40">
         <v>86.15384615384616</v>
       </c>
     </row>
@@ -4661,13 +4537,13 @@
       <c r="C27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="39">
         <v>80</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="39">
         <v>110</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="39">
         <v>180</v>
       </c>
     </row>
@@ -4789,43 +4665,43 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="59"/>
-      <c r="D36" s="57" t="s">
+      <c r="C36" s="43"/>
+      <c r="D36" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="42">
         <f>ROUND(D26,0)</f>
         <v>92</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="42">
         <f>ROUND(E26,0)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F37" s="42">
         <f>ROUND(F26,0)</f>
         <v>86</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="47">
         <v>22892.307692307695</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4840,7 +4716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/HW1/IMSE_802_BlakeConrad_Homework1.xlsx
+++ b/HW1/IMSE_802_BlakeConrad_Homework1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/spdm/HW1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1517766115.CIV\Desktop\spdm-master\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="580" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="20865" windowHeight="12075" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -49,11 +49,8 @@
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -748,6 +745,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -920,40 +920,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14520.0</c:v>
+                  <c:v>14520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17250.0</c:v>
+                  <c:v>17250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16800.0</c:v>
+                  <c:v>16800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19500.0</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21000.0</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22500.0</c:v>
+                  <c:v>22500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19500.0</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16800.0</c:v>
+                  <c:v>16800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15500.0</c:v>
+                  <c:v>15500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14244.0</c:v>
+                  <c:v>14244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13533.0</c:v>
+                  <c:v>13533</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13880.0</c:v>
+                  <c:v>13880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,19 +1052,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14000.0</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14104.0</c:v>
+                  <c:v>14104</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14733.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15146.56</c:v>
+                  <c:v>15146.560000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16017.248</c:v>
+                  <c:v>16017.248000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17013.7984</c:v>
@@ -1073,22 +1073,22 @@
                   <c:v>18111.03872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18388.830976</c:v>
+                  <c:v>18388.830976000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18071.0647808</c:v>
+                  <c:v>18071.064780799999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17556.85182464</c:v>
+                  <c:v>17556.851824639998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16894.281459712</c:v>
+                  <c:v>16894.281459711998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16222.0251677696</c:v>
+                  <c:v>16222.025167769598</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15753.62013421568</c:v>
+                  <c:v>15753.620134215678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,10 +1187,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14000.0</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14208.0</c:v>
+                  <c:v>14208</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15424.8</c:v>
@@ -1205,25 +1205,25 @@
                   <c:v>18830.9568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20298.57408</c:v>
+                  <c:v>20298.574079999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19979.144448</c:v>
+                  <c:v>19979.144447999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18707.4866688</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17424.49200128</c:v>
+                  <c:v>17424.492001279999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16152.295200768</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15104.5771204608</c:v>
+                  <c:v>15104.577120460799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14614.74627227648</c:v>
+                  <c:v>14614.746272276479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,40 +1322,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14000.0</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14312.0</c:v>
+                  <c:v>14312</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16074.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16509.92</c:v>
+                  <c:v>16509.919999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18303.968</c:v>
+                  <c:v>18303.968000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19921.5872</c:v>
+                  <c:v>19921.587200000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21468.63488</c:v>
+                  <c:v>21468.634880000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20287.453952</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18194.9815808</c:v>
+                  <c:v>18194.981580799998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16577.99263232</c:v>
+                  <c:v>16577.992632319998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15177.597052928</c:v>
+                  <c:v>15177.597052927998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14190.8388211712</c:v>
+                  <c:v>14190.838821171199</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14004.33552846848</c:v>
@@ -1457,10 +1457,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14000.0</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14416.0</c:v>
+                  <c:v>14416</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16683.2</c:v>
@@ -1469,10 +1469,10 @@
                   <c:v>16776.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18955.328</c:v>
+                  <c:v>18955.328000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20591.0656</c:v>
+                  <c:v>20591.065600000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>22118.21312</c:v>
@@ -1481,10 +1481,10 @@
                   <c:v>20023.642624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17444.7285248</c:v>
+                  <c:v>17444.728524800001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15888.94570496</c:v>
+                  <c:v>15888.945704960001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>14572.989140992</c:v>
@@ -1493,7 +1493,7 @@
                   <c:v>13740.9978281984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13852.19956563968</c:v>
+                  <c:v>13852.199565639679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,11 +1510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1186074832"/>
-        <c:axId val="-1186073200"/>
+        <c:axId val="308530240"/>
+        <c:axId val="308526712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1186074832"/>
+        <c:axId val="308530240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1186073200"/>
+        <c:crossAx val="308526712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1565,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1186073200"/>
+        <c:axId val="308526712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1186074832"/>
+        <c:crossAx val="308530240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3073,8 +3073,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3084,7 +3084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="368300" y="190500"/>
-          <a:ext cx="11633200" cy="4533900"/>
+          <a:ext cx="11811000" cy="10791825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3134,6 +3134,1814 @@
             </a:rPr>
             <a:t>(5 points)  Describe benchmarking.  Define the seven steps to successful benchmarking (WERC).  One of the popular WERC metrics is “Dock to Stock Cycle Time, in Hours ‐ Inbound Operations.”  Your company’s current Dock to Stock Cycle Time is 8 hours.  How well is your company performing based on the available WERC metrics?  Discuss one thing you might do to improve this operation.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Four Market Quadrants</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Customer Service </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>– The ability of the supply chain to meet the expectations of its customers</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Internal Efficiency </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>– The ability of a supply chain to operate profitability</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Demand Flexibility </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>– The ability to respond to uncertainty in demand</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Product Development </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>– The ability of a company’s supply chain to evolve with its markets.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Supply Chain Measurement Categories</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Developing markets </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>require their supply chains to excel in product development and customer service</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Growth markets </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>require high levels of customer service, especially with order fill rates and on-time delivery</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steady markets </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>require internal efficiency and broader customer service.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mature markets </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>require all of the internal efficiency and customer service call for my steady markets and the highest level of demand flexibility.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The four categories of supply chain operations from the SCOR model:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Plan</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Source</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Make </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Deliver</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WERC 7 Steps</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:Set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>benchmarking priorities</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Step</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Identify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>processes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>be</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>assessed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Measure Step</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Collect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>‐</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>operational</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>managerial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Compare</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Step</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>compare</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>best</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>‐</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>‐</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>performance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>internal and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>external</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>standards</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Step</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5:Identify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaps</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>reasons</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>low</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>performance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Step</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Develop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>an</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>improvement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>roadmap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>priorities</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Act</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Step 7:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lose</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaps</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>improve/refine processes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3407,11 +5215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3426,13 +5234,13 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="48" t="s">
@@ -3448,7 +5256,7 @@
       <c r="K14" s="52"/>
       <c r="L14" s="53"/>
     </row>
-    <row r="15" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="20">
@@ -3476,7 +5284,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="33" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +5316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="29" t="s">
         <v>20</v>
       </c>
@@ -3544,7 +5352,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="30" t="s">
         <v>21</v>
       </c>
@@ -3584,7 +5392,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -3624,7 +5432,7 @@
         <v>608.40000000000146</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="30" t="s">
         <v>23</v>
       </c>
@@ -3664,7 +5472,7 @@
         <v>266.72000000000116</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="30" t="s">
         <v>24</v>
       </c>
@@ -3704,7 +5512,7 @@
         <v>651.36000000000058</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="30" t="s">
         <v>25</v>
       </c>
@@ -3744,7 +5552,7 @@
         <v>669.47839999999997</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="30" t="s">
         <v>26</v>
       </c>
@@ -3784,7 +5592,7 @@
         <v>649.57823999999891</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="30" t="s">
         <v>27</v>
       </c>
@@ -3824,7 +5632,7 @@
         <v>263.81132799999978</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="30" t="s">
         <v>28</v>
       </c>
@@ -3864,7 +5672,7 @@
         <v>750.25305599999774</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="30" t="s">
         <v>29</v>
       </c>
@@ -3904,7 +5712,7 @@
         <v>689.04692735999743</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="30" t="s">
         <v>30</v>
       </c>
@@ -3944,7 +5752,7 @@
         <v>604.60791193599835</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="30" t="s">
         <v>31</v>
       </c>
@@ -3984,7 +5792,7 @@
         <v>449.84099297279863</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="30" t="s">
         <v>32</v>
       </c>
@@ -4022,7 +5830,7 @@
         <v>6227.096856268794</v>
       </c>
     </row>
-    <row r="33" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -4039,7 +5847,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -4052,7 +5860,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -4065,7 +5873,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -4078,7 +5886,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -4091,7 +5899,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -4104,7 +5912,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -4117,7 +5925,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -4130,7 +5938,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -4143,7 +5951,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -4160,7 +5968,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -4177,7 +5985,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="3:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:17" ht="21" x14ac:dyDescent="0.35">
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -4224,16 +6032,16 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="32" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="14" t="s">
         <v>0</v>
       </c>
@@ -4242,7 +6050,7 @@
       </c>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="34" t="s">
         <v>20</v>
       </c>
@@ -4251,7 +6059,7 @@
       </c>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="35" t="s">
         <v>21</v>
       </c>
@@ -4260,7 +6068,7 @@
       </c>
       <c r="E35" s="38"/>
     </row>
-    <row r="36" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C36" s="35" t="s">
         <v>22</v>
       </c>
@@ -4269,7 +6077,7 @@
       </c>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C37" s="35" t="s">
         <v>23</v>
       </c>
@@ -4278,7 +6086,7 @@
       </c>
       <c r="E37" s="38"/>
     </row>
-    <row r="38" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="35" t="s">
         <v>24</v>
       </c>
@@ -4287,7 +6095,7 @@
       </c>
       <c r="E38" s="38"/>
     </row>
-    <row r="39" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C39" s="35" t="s">
         <v>25</v>
       </c>
@@ -4296,7 +6104,7 @@
       </c>
       <c r="E39" s="38"/>
     </row>
-    <row r="40" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="35" t="s">
         <v>26</v>
       </c>
@@ -4305,7 +6113,7 @@
       </c>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C41" s="35" t="s">
         <v>27</v>
       </c>
@@ -4314,7 +6122,7 @@
       </c>
       <c r="E41" s="38"/>
     </row>
-    <row r="42" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C42" s="35" t="s">
         <v>28</v>
       </c>
@@ -4323,7 +6131,7 @@
       </c>
       <c r="E42" s="38"/>
     </row>
-    <row r="43" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C43" s="35" t="s">
         <v>29</v>
       </c>
@@ -4332,7 +6140,7 @@
       </c>
       <c r="E43" s="38"/>
     </row>
-    <row r="44" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C44" s="35" t="s">
         <v>30</v>
       </c>
@@ -4341,7 +6149,7 @@
       </c>
       <c r="E44" s="38"/>
     </row>
-    <row r="45" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C45" s="35" t="s">
         <v>31</v>
       </c>
@@ -4350,7 +6158,7 @@
       </c>
       <c r="E45" s="38"/>
     </row>
-    <row r="46" spans="3:5" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:5" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C46" s="35" t="s">
         <v>32</v>
       </c>
@@ -4359,12 +6167,12 @@
       </c>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="3:5" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:5" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="38"/>
     </row>
-    <row r="48" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C48" s="14" t="s">
         <v>34</v>
       </c>
@@ -4374,7 +6182,7 @@
       </c>
       <c r="E48" s="38"/>
     </row>
-    <row r="49" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C49" s="14" t="s">
         <v>35</v>
       </c>
@@ -4384,7 +6192,7 @@
       </c>
       <c r="E49" s="38"/>
     </row>
-    <row r="50" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C50" s="14" t="s">
         <v>37</v>
       </c>
@@ -4393,7 +6201,7 @@
       </c>
       <c r="E50" s="38"/>
     </row>
-    <row r="51" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="56" t="s">
         <v>38</v>
       </c>
@@ -4403,17 +6211,17 @@
       </c>
       <c r="E51" s="38"/>
     </row>
-    <row r="52" spans="3:6" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C52" s="57"/>
       <c r="D52" s="59"/>
       <c r="E52" s="38"/>
     </row>
-    <row r="53" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
     </row>
-    <row r="54" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="14" t="s">
         <v>39</v>
       </c>
@@ -4424,7 +6232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="58">
         <f>D48</f>
         <v>16836.861505049208</v>
@@ -4438,13 +6246,13 @@
         <v>20644.827235021279</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
       <c r="E56" s="55"/>
     </row>
-    <row r="57" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="14" t="s">
         <v>42</v>
       </c>
@@ -4458,7 +6266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
         <f>D48/30</f>
         <v>561.22871683497362</v>
@@ -4497,15 +6305,15 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="61" t="s">
         <v>3</v>
       </c>
@@ -4519,7 +6327,7 @@
         <v>22892.307692307695</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
@@ -4533,7 +6341,7 @@
         <v>86.15384615384616</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="9" t="s">
         <v>44</v>
       </c>
@@ -4547,7 +6355,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
         <v>6</v>
@@ -4568,7 +6376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
@@ -4592,7 +6400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
@@ -4616,7 +6424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="9" t="s">
         <v>13</v>
       </c>
@@ -4640,7 +6448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="9" t="s">
         <v>15</v>
       </c>
@@ -4664,7 +6472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="43"/>
       <c r="D36" s="41" t="s">
         <v>6</v>
@@ -4676,7 +6484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="41" t="s">
         <v>49</v>
       </c>
@@ -4693,7 +6501,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="46" t="s">
         <v>47</v>
       </c>
@@ -4716,9 +6524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/HW1/IMSE_802_BlakeConrad_Homework1.xlsx
+++ b/HW1/IMSE_802_BlakeConrad_Homework1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1517766115.CIV\Desktop\spdm-master\HW1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="20865" windowHeight="12075" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,11 @@
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -745,9 +748,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -920,40 +920,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14520</c:v>
+                  <c:v>14520.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17250</c:v>
+                  <c:v>17250.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16800</c:v>
+                  <c:v>16800.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19500</c:v>
+                  <c:v>19500.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21000</c:v>
+                  <c:v>21000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22500</c:v>
+                  <c:v>22500.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19500</c:v>
+                  <c:v>19500.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16800</c:v>
+                  <c:v>16800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15500</c:v>
+                  <c:v>15500.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14244</c:v>
+                  <c:v>14244.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13533</c:v>
+                  <c:v>13533.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13880</c:v>
+                  <c:v>13880.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,19 +1052,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14104</c:v>
+                  <c:v>14104.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14733.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15146.560000000001</c:v>
+                  <c:v>15146.56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16017.248000000001</c:v>
+                  <c:v>16017.248</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17013.7984</c:v>
@@ -1073,22 +1073,22 @@
                   <c:v>18111.03872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18388.830976000001</c:v>
+                  <c:v>18388.830976</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18071.064780799999</c:v>
+                  <c:v>18071.0647808</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17556.851824639998</c:v>
+                  <c:v>17556.85182464</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16894.281459711998</c:v>
+                  <c:v>16894.281459712</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16222.025167769598</c:v>
+                  <c:v>16222.0251677696</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15753.620134215678</c:v>
+                  <c:v>15753.62013421568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,10 +1187,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14208</c:v>
+                  <c:v>14208.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15424.8</c:v>
@@ -1205,25 +1205,25 @@
                   <c:v>18830.9568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20298.574079999999</c:v>
+                  <c:v>20298.57408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19979.144447999999</c:v>
+                  <c:v>19979.144448</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18707.4866688</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17424.492001279999</c:v>
+                  <c:v>17424.49200128</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16152.295200768</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15104.577120460799</c:v>
+                  <c:v>15104.5771204608</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14614.746272276479</c:v>
+                  <c:v>14614.74627227648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,40 +1322,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14312</c:v>
+                  <c:v>14312.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16074.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16509.919999999998</c:v>
+                  <c:v>16509.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18303.968000000001</c:v>
+                  <c:v>18303.968</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19921.587200000002</c:v>
+                  <c:v>19921.5872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21468.634880000001</c:v>
+                  <c:v>21468.63488</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20287.453952</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18194.981580799998</c:v>
+                  <c:v>18194.9815808</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16577.992632319998</c:v>
+                  <c:v>16577.99263232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15177.597052927998</c:v>
+                  <c:v>15177.597052928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14190.838821171199</c:v>
+                  <c:v>14190.8388211712</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14004.33552846848</c:v>
@@ -1457,10 +1457,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14000</c:v>
+                  <c:v>14000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14416</c:v>
+                  <c:v>14416.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16683.2</c:v>
@@ -1469,10 +1469,10 @@
                   <c:v>16776.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18955.328000000001</c:v>
+                  <c:v>18955.328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20591.065600000002</c:v>
+                  <c:v>20591.0656</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>22118.21312</c:v>
@@ -1481,10 +1481,10 @@
                   <c:v>20023.642624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17444.728524800001</c:v>
+                  <c:v>17444.7285248</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15888.945704960001</c:v>
+                  <c:v>15888.94570496</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>14572.989140992</c:v>
@@ -1493,7 +1493,7 @@
                   <c:v>13740.9978281984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13852.199565639679</c:v>
+                  <c:v>13852.19956563968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,11 +1510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="308530240"/>
-        <c:axId val="308526712"/>
+        <c:axId val="883780976"/>
+        <c:axId val="883783024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308530240"/>
+        <c:axId val="883780976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308526712"/>
+        <c:crossAx val="883783024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1565,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308526712"/>
+        <c:axId val="883783024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308530240"/>
+        <c:crossAx val="883780976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2380,7 +2380,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> steps mapped out to get there. The flow in which these steps are mapped out is often understood as a supply chain, where supply could be a good or service. Each of these steps could be to influece markets, gain certain types of customers, invent new types of technology, or simply just make more money. Whatever the industry, whatever the business plan, the way in which the businesses goods or services are distributed from source to customer is the main artery the business strategy. This is precisely why the supply chain is so important to a companies business strategy, because it is in fact this process. With a supply chain synchronized with a business strategy, one is able to make the flow of serivces or products coincide with overarching objectives. An example of this could be a business strategy of gaining more local business, with an emphasis on supply chain, the number of warehouses that are closer becomes much more important to the objective, but would greatly reduce the amount of time the locals would have to wait to get their product. Hence, the customers would be happy with their very short delivery times, and come back more often. </a:t>
+            <a:t> steps mapped out to get there. The flow in which these steps are mapped out, are often implemented in a supply chain, where supply could be a good or service. Each of these steps could be to influece markets, gain certain types of customers, invent new types of technology, or simply just make more money. Whatever the industry, whatever the business plan, the way in which the businesses goods or services are distributed from source to customer is the main artery the business strategy, and this is why supply chain is so important to the business strategy. With a supply chain synchronized to a business strategy, one is able to make the flow of serivces or products coincide with overarching objectives. An example of this could be a business strategy of gaining more local business, with a streamlined supply chain, the number of warehouses that are closer becomes much more important to the objective, but would greatly reduce the amount of time the locals would have to wait to get their product. Hence, the customers would be happy with their very short delivery times, and come back more often. </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800" b="0" i="0">
             <a:solidFill>
@@ -2509,7 +2509,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> able to test several different exponential smoothing constants and their cooresponding results. We use the simply metric of sum of squared errors to determine which smoothing constant is best. We see at alpha = 0.8 we have the least sum of squared errors. Hence, we will choose to select the exponential smoothing constant corresponding with the blue line, because it best represents our actual data.</a:t>
+            <a:t> able to test several different exponential smoothing constants and their cooresponding results. We use the simply metric of sum of squared errors to determine which smoothing constant is best. We see at alpha = 0.8 we have the least sum of squared errors. Hence, we will choose to select the exponential smoothing constant corresponding with the blue line, because it best represents our actual data; alpha=0.8.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:solidFill>
@@ -2953,8 +2953,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2964,7 +2964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="190500"/>
-          <a:ext cx="11633200" cy="4533900"/>
+          <a:ext cx="12204700" cy="2870200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3073,8 +3073,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3084,7 +3084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="368300" y="190500"/>
-          <a:ext cx="11811000" cy="10791825"/>
+          <a:ext cx="11633200" cy="11303000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3136,453 +3136,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Four Market Quadrants</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Customer Service </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>– The ability of the supply chain to meet the expectations of its customers</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Internal Efficiency </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>– The ability of a supply chain to operate profitability</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Demand Flexibility </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>– The ability to respond to uncertainty in demand</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Product Development </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>– The ability of a company’s supply chain to evolve with its markets.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Supply Chain Measurement Categories</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Developing markets </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>require their supply chains to excel in product development and customer service</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Growth markets </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>require high levels of customer service, especially with order fill rates and on-time delivery</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Steady markets </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>require internal efficiency and broader customer service.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Mature markets </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>require all of the internal efficiency and customer service call for my steady markets and the highest level of demand flexibility.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The four categories of supply chain operations from the SCOR model:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Plan</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Source</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Make </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Deliver</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:pPr lvl="0"/>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -3597,7 +3150,7 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
+            <a:rPr lang="en-US" sz="1800" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3606,12 +3159,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>WERC 7 Steps</a:t>
+            <a:t>Benchmarking</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3620,10 +3171,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1:Set</a:t>
+            <a:t> is a way of comparing a business process and performance metrics to an industry's best practices from other companies. This is basically a way to quantify the question, "How good is my process?", by using industry standards to compare against. The 7 steps to successful benchmarking are: setting benchmarking priorities, identifying key processes to be assessed, collect appropriate data, research and compare best, identify gaps and reasons for low performance, develop an improvement road map, and close gaps and improve processes. </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-US" sz="1800" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" sz="1800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3632,1308 +3198,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>If my company's current Dock to Stock Cycle Time is 8 hours, clearly we are in the disadvanged category. In order to become best-in-class we need to be lower than 2.4 hours. Typically when there is one problem in a pipeline, that problem ripples accross regions. So a simple 5 minute hold up in phase 1, could aggregate into a 1 hour hold up overall. In order to improve this operation, I would want to start right at the source and see the quality of the people and the links between them getting the goods from point a to point b. Typically, if the source has issues, everyone else will. So this would give me an indicator of how the rest of the pipeline may be behaving. For example, if I see information transmission issues right at the beginning of the pipeline, it is likely that didn't stop there. This is one way I would diagnose the problem and try to improve the operation. </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>benchmarking priorities</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Step</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Identify</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>processes</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>to</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>be</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>assessed</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Measure Step</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Collect</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>‐</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>operational</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>managerial</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Compare</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Step</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Research</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>compare</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>best</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>‐</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>in</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>‐</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>class</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>performance</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>to</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>internal and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>external</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>standards</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Step</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5:Identify</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>gaps</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>reasons</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>for</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>low</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>performance</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Step</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>6:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Develop</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>an</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>improvement</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>roadmap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>set</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>priorities</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Act</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Step 7:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>lose</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>gaps</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>improve/refine processes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1800" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -5215,11 +3482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5231,16 +3498,16 @@
   <dimension ref="C13:Q44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="48" t="s">
@@ -5256,7 +3523,7 @@
       <c r="K14" s="52"/>
       <c r="L14" s="53"/>
     </row>
-    <row r="15" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="20">
@@ -5284,7 +3551,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="33" t="s">
         <v>0</v>
       </c>
@@ -5316,7 +3583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="29" t="s">
         <v>20</v>
       </c>
@@ -5352,7 +3619,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="30" t="s">
         <v>21</v>
       </c>
@@ -5392,7 +3659,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -5432,7 +3699,7 @@
         <v>608.40000000000146</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="30" t="s">
         <v>23</v>
       </c>
@@ -5472,7 +3739,7 @@
         <v>266.72000000000116</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>24</v>
       </c>
@@ -5512,7 +3779,7 @@
         <v>651.36000000000058</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="30" t="s">
         <v>25</v>
       </c>
@@ -5552,7 +3819,7 @@
         <v>669.47839999999997</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="30" t="s">
         <v>26</v>
       </c>
@@ -5592,7 +3859,7 @@
         <v>649.57823999999891</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
         <v>27</v>
       </c>
@@ -5632,7 +3899,7 @@
         <v>263.81132799999978</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
         <v>28</v>
       </c>
@@ -5672,7 +3939,7 @@
         <v>750.25305599999774</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
         <v>29</v>
       </c>
@@ -5712,7 +3979,7 @@
         <v>689.04692735999743</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="30" t="s">
         <v>30</v>
       </c>
@@ -5752,7 +4019,7 @@
         <v>604.60791193599835</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="30" t="s">
         <v>31</v>
       </c>
@@ -5792,7 +4059,7 @@
         <v>449.84099297279863</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="30" t="s">
         <v>32</v>
       </c>
@@ -5818,19 +4085,19 @@
         <v>35120.209088921598</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:L29" si="5">SUMPRODUCT(J17:J28)</f>
+        <f>SUMPRODUCT(J17:J28)</f>
         <v>11734.823249612788</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(K17:K28)</f>
         <v>8544.5216080896098</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(L17:L28)</f>
         <v>6227.096856268794</v>
       </c>
     </row>
-    <row r="33" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -5847,7 +4114,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -5860,7 +4127,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -5873,7 +4140,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -5886,7 +4153,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -5899,7 +4166,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -5912,7 +4179,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -5925,7 +4192,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -5938,7 +4205,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -5951,7 +4218,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -5968,7 +4235,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -5985,7 +4252,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="3:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:17" ht="21" x14ac:dyDescent="0.25">
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -6032,16 +4299,16 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="14" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +4317,7 @@
       </c>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="34" t="s">
         <v>20</v>
       </c>
@@ -6059,7 +4326,7 @@
       </c>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="35" t="s">
         <v>21</v>
       </c>
@@ -6068,7 +4335,7 @@
       </c>
       <c r="E35" s="38"/>
     </row>
-    <row r="36" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="35" t="s">
         <v>22</v>
       </c>
@@ -6077,7 +4344,7 @@
       </c>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="35" t="s">
         <v>23</v>
       </c>
@@ -6086,7 +4353,7 @@
       </c>
       <c r="E37" s="38"/>
     </row>
-    <row r="38" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="35" t="s">
         <v>24</v>
       </c>
@@ -6095,7 +4362,7 @@
       </c>
       <c r="E38" s="38"/>
     </row>
-    <row r="39" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="35" t="s">
         <v>25</v>
       </c>
@@ -6104,7 +4371,7 @@
       </c>
       <c r="E39" s="38"/>
     </row>
-    <row r="40" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="35" t="s">
         <v>26</v>
       </c>
@@ -6113,7 +4380,7 @@
       </c>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C41" s="35" t="s">
         <v>27</v>
       </c>
@@ -6122,7 +4389,7 @@
       </c>
       <c r="E41" s="38"/>
     </row>
-    <row r="42" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="35" t="s">
         <v>28</v>
       </c>
@@ -6131,7 +4398,7 @@
       </c>
       <c r="E42" s="38"/>
     </row>
-    <row r="43" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C43" s="35" t="s">
         <v>29</v>
       </c>
@@ -6140,7 +4407,7 @@
       </c>
       <c r="E43" s="38"/>
     </row>
-    <row r="44" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C44" s="35" t="s">
         <v>30</v>
       </c>
@@ -6149,7 +4416,7 @@
       </c>
       <c r="E44" s="38"/>
     </row>
-    <row r="45" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C45" s="35" t="s">
         <v>31</v>
       </c>
@@ -6158,7 +4425,7 @@
       </c>
       <c r="E45" s="38"/>
     </row>
-    <row r="46" spans="3:5" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:5" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C46" s="35" t="s">
         <v>32</v>
       </c>
@@ -6167,12 +4434,12 @@
       </c>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="3:5" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:5" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="38"/>
     </row>
-    <row r="48" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="14" t="s">
         <v>34</v>
       </c>
@@ -6182,7 +4449,7 @@
       </c>
       <c r="E48" s="38"/>
     </row>
-    <row r="49" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="14" t="s">
         <v>35</v>
       </c>
@@ -6192,7 +4459,7 @@
       </c>
       <c r="E49" s="38"/>
     </row>
-    <row r="50" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C50" s="14" t="s">
         <v>37</v>
       </c>
@@ -6201,7 +4468,7 @@
       </c>
       <c r="E50" s="38"/>
     </row>
-    <row r="51" spans="3:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="56" t="s">
         <v>38</v>
       </c>
@@ -6211,17 +4478,17 @@
       </c>
       <c r="E51" s="38"/>
     </row>
-    <row r="52" spans="3:6" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:6" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C52" s="57"/>
       <c r="D52" s="59"/>
       <c r="E52" s="38"/>
     </row>
-    <row r="53" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
     </row>
-    <row r="54" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C54" s="14" t="s">
         <v>39</v>
       </c>
@@ -6232,7 +4499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="58">
         <f>D48</f>
         <v>16836.861505049208</v>
@@ -6246,13 +4513,13 @@
         <v>20644.827235021279</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
       <c r="E56" s="55"/>
     </row>
-    <row r="57" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C58" s="14" t="s">
         <v>42</v>
       </c>
@@ -6266,7 +4533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="15">
         <f>D48/30</f>
         <v>561.22871683497362</v>
@@ -6301,19 +4568,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C24:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D25" s="61" t="s">
         <v>3</v>
       </c>
@@ -6327,7 +4594,7 @@
         <v>22892.307692307695</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
@@ -6341,7 +4608,7 @@
         <v>86.15384615384616</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>44</v>
       </c>
@@ -6355,7 +4622,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
         <v>6</v>
@@ -6376,7 +4643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
@@ -6400,7 +4667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
@@ -6424,7 +4691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
         <v>13</v>
       </c>
@@ -6448,7 +4715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
         <v>15</v>
       </c>
@@ -6472,7 +4739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="43"/>
       <c r="D36" s="41" t="s">
         <v>6</v>
@@ -6484,7 +4751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="41" t="s">
         <v>49</v>
       </c>
@@ -6501,7 +4768,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="46" t="s">
         <v>47</v>
       </c>
@@ -6526,7 +4793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
